--- a/data/pca/factorExposure/factorExposure_2009-01-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-20.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01684538095751609</v>
+        <v>-0.01567499442355837</v>
       </c>
       <c r="C2">
-        <v>0.00739561440472452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.009884972061201617</v>
+      </c>
+      <c r="D2">
+        <v>0.01439132462188951</v>
+      </c>
+      <c r="E2">
+        <v>0.002036686379284115</v>
+      </c>
+      <c r="F2">
+        <v>-0.01276189225089922</v>
+      </c>
+      <c r="G2">
+        <v>-0.01596192760563847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08142788257992367</v>
+        <v>-0.0834596821425516</v>
       </c>
       <c r="C4">
-        <v>0.08294171563010982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08780154015136216</v>
+      </c>
+      <c r="D4">
+        <v>-0.06008468109247898</v>
+      </c>
+      <c r="E4">
+        <v>-0.02570946427731742</v>
+      </c>
+      <c r="F4">
+        <v>-0.03302429376341968</v>
+      </c>
+      <c r="G4">
+        <v>-0.02928666495063852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003329704134975625</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.001947054113196808</v>
+      </c>
+      <c r="D5">
+        <v>-0.00236234544475565</v>
+      </c>
+      <c r="E5">
+        <v>0.002385833423573376</v>
+      </c>
+      <c r="F5">
+        <v>0.003386308635726123</v>
+      </c>
+      <c r="G5">
+        <v>0.00154601802242662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1687735071557273</v>
+        <v>-0.1703575916836323</v>
       </c>
       <c r="C6">
-        <v>-0.01889324737000994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.01003380849808518</v>
+      </c>
+      <c r="D6">
+        <v>-0.05169983415095968</v>
+      </c>
+      <c r="E6">
+        <v>-0.03317257547785923</v>
+      </c>
+      <c r="F6">
+        <v>0.06346667433021429</v>
+      </c>
+      <c r="G6">
+        <v>-0.00408913830098495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05498956803242089</v>
+        <v>-0.05884725755808427</v>
       </c>
       <c r="C7">
-        <v>0.06032677720185832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06445330527060937</v>
+      </c>
+      <c r="D7">
+        <v>-0.04291798023859791</v>
+      </c>
+      <c r="E7">
+        <v>-0.06349119084023952</v>
+      </c>
+      <c r="F7">
+        <v>-0.06492216139865108</v>
+      </c>
+      <c r="G7">
+        <v>-0.03942196283337199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05517734648173619</v>
+        <v>-0.05162894425109787</v>
       </c>
       <c r="C8">
-        <v>0.05202773709809071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05263450614698707</v>
+      </c>
+      <c r="D8">
+        <v>0.01473478185793735</v>
+      </c>
+      <c r="E8">
+        <v>0.007532414920208949</v>
+      </c>
+      <c r="F8">
+        <v>-0.04231458457470156</v>
+      </c>
+      <c r="G8">
+        <v>0.001427876660985659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06030892233312871</v>
+        <v>-0.06366437087098914</v>
       </c>
       <c r="C9">
-        <v>0.08930751850181981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.0925233433512815</v>
+      </c>
+      <c r="D9">
+        <v>-0.08449596818718388</v>
+      </c>
+      <c r="E9">
+        <v>-0.03689416679101396</v>
+      </c>
+      <c r="F9">
+        <v>-0.05768969710793945</v>
+      </c>
+      <c r="G9">
+        <v>-0.002768864700191432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.108950781788366</v>
+        <v>-0.1012446767846334</v>
       </c>
       <c r="C10">
-        <v>-0.1454846109978329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1366433293121768</v>
+      </c>
+      <c r="D10">
+        <v>0.09357055509912196</v>
+      </c>
+      <c r="E10">
+        <v>0.03711921669726088</v>
+      </c>
+      <c r="F10">
+        <v>-0.04481253631488067</v>
+      </c>
+      <c r="G10">
+        <v>0.02553032173467852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07857120510123247</v>
+        <v>-0.07643638672511299</v>
       </c>
       <c r="C11">
-        <v>0.1246428582556957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1256229656434338</v>
+      </c>
+      <c r="D11">
+        <v>-0.05422081824574755</v>
+      </c>
+      <c r="E11">
+        <v>-0.001280693435152322</v>
+      </c>
+      <c r="F11">
+        <v>-0.07945858613355219</v>
+      </c>
+      <c r="G11">
+        <v>0.00419413291274436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08177532568842294</v>
+        <v>-0.07743570997549322</v>
       </c>
       <c r="C12">
-        <v>0.1493693641198128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1498527915548077</v>
+      </c>
+      <c r="D12">
+        <v>-0.06115618159765925</v>
+      </c>
+      <c r="E12">
+        <v>-0.006151280297425015</v>
+      </c>
+      <c r="F12">
+        <v>-0.08363290734128298</v>
+      </c>
+      <c r="G12">
+        <v>-0.001070912110410187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0422962061849437</v>
+        <v>-0.04283013422580706</v>
       </c>
       <c r="C13">
-        <v>0.0669431810339553</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07343892549089052</v>
+      </c>
+      <c r="D13">
+        <v>-0.02975271881432549</v>
+      </c>
+      <c r="E13">
+        <v>-0.02052361308522409</v>
+      </c>
+      <c r="F13">
+        <v>-0.0747313940111599</v>
+      </c>
+      <c r="G13">
+        <v>-0.005583660059038183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01984085376363997</v>
+        <v>-0.02281087896844182</v>
       </c>
       <c r="C14">
-        <v>0.04420138527970742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.04441527094197751</v>
+      </c>
+      <c r="D14">
+        <v>-0.05002130149578739</v>
+      </c>
+      <c r="E14">
+        <v>-0.00188198440561699</v>
+      </c>
+      <c r="F14">
+        <v>-0.08072362881629813</v>
+      </c>
+      <c r="G14">
+        <v>0.01305716106577196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03166689040540009</v>
+        <v>-0.03376727207314383</v>
       </c>
       <c r="C15">
-        <v>0.05727177324911237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.05691896120973355</v>
+      </c>
+      <c r="D15">
+        <v>-0.03935440361950055</v>
+      </c>
+      <c r="E15">
+        <v>-0.02812877131194224</v>
+      </c>
+      <c r="F15">
+        <v>-0.02963453653859806</v>
+      </c>
+      <c r="G15">
+        <v>0.01159230699489635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05689343375320583</v>
+        <v>-0.05678834894724519</v>
       </c>
       <c r="C16">
-        <v>0.1450101855961362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1455163588304025</v>
+      </c>
+      <c r="D16">
+        <v>-0.06902724778643321</v>
+      </c>
+      <c r="E16">
+        <v>0.0168431082765145</v>
+      </c>
+      <c r="F16">
+        <v>-0.07770428092293687</v>
+      </c>
+      <c r="G16">
+        <v>-0.0001279059581354856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.00564041210828732</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004720149103131108</v>
+      </c>
+      <c r="D17">
+        <v>-0.002131034237848103</v>
+      </c>
+      <c r="E17">
+        <v>0.007922993110745886</v>
+      </c>
+      <c r="F17">
+        <v>0.006972055535828459</v>
+      </c>
+      <c r="G17">
+        <v>0.01429664588328072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03673074485100822</v>
+        <v>-0.05211401704577664</v>
       </c>
       <c r="C18">
-        <v>0.05034924805198525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04379963961282148</v>
+      </c>
+      <c r="D18">
+        <v>0.007732504308938286</v>
+      </c>
+      <c r="E18">
+        <v>0.001670473488735952</v>
+      </c>
+      <c r="F18">
+        <v>0.05707229494059704</v>
+      </c>
+      <c r="G18">
+        <v>0.002447449540670835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05677081845719582</v>
+        <v>-0.05665400714354522</v>
       </c>
       <c r="C20">
-        <v>0.09383203533747118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.09278997996693472</v>
+      </c>
+      <c r="D20">
+        <v>-0.08152110991630858</v>
+      </c>
+      <c r="E20">
+        <v>-0.01083608704553719</v>
+      </c>
+      <c r="F20">
+        <v>-0.07487459789255572</v>
+      </c>
+      <c r="G20">
+        <v>0.00847223632327912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04373415458880422</v>
+        <v>-0.04519766149846615</v>
       </c>
       <c r="C21">
-        <v>0.06052872405443605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.05799477068995681</v>
+      </c>
+      <c r="D21">
+        <v>-0.008908988418758802</v>
+      </c>
+      <c r="E21">
+        <v>-0.01592199275724904</v>
+      </c>
+      <c r="F21">
+        <v>-0.07115988283862161</v>
+      </c>
+      <c r="G21">
+        <v>-0.01773766624899836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04575325111084301</v>
+        <v>-0.04483393777152189</v>
       </c>
       <c r="C22">
-        <v>0.02452418391390343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.02959161849670608</v>
+      </c>
+      <c r="D22">
+        <v>0.00143999269740726</v>
+      </c>
+      <c r="E22">
+        <v>0.1538646143618881</v>
+      </c>
+      <c r="F22">
+        <v>0.0228052153657915</v>
+      </c>
+      <c r="G22">
+        <v>0.0005528102283313961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04576274514836332</v>
+        <v>-0.0448420299265761</v>
       </c>
       <c r="C23">
-        <v>0.02451682053386665</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.02958534458712051</v>
+      </c>
+      <c r="D23">
+        <v>0.001457681124557896</v>
+      </c>
+      <c r="E23">
+        <v>0.1539076061699296</v>
+      </c>
+      <c r="F23">
+        <v>0.02279805212127455</v>
+      </c>
+      <c r="G23">
+        <v>0.0005934054825386508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06602590810478105</v>
+        <v>-0.06532225105703764</v>
       </c>
       <c r="C24">
-        <v>0.1341722267796224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1332912351751996</v>
+      </c>
+      <c r="D24">
+        <v>-0.06302338155844819</v>
+      </c>
+      <c r="E24">
+        <v>-0.005858023558696046</v>
+      </c>
+      <c r="F24">
+        <v>-0.0748403171329344</v>
+      </c>
+      <c r="G24">
+        <v>-0.004120463636064045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07140540136346128</v>
+        <v>-0.06990687573207975</v>
       </c>
       <c r="C25">
-        <v>0.117724609625438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1174500709917285</v>
+      </c>
+      <c r="D25">
+        <v>-0.03349690621066075</v>
+      </c>
+      <c r="E25">
+        <v>-0.02607931525847221</v>
+      </c>
+      <c r="F25">
+        <v>-0.09343614906593642</v>
+      </c>
+      <c r="G25">
+        <v>-0.004587285698737265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05619699226930715</v>
+        <v>-0.06027731791008731</v>
       </c>
       <c r="C26">
-        <v>0.068396881544266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.06909526642053149</v>
+      </c>
+      <c r="D26">
+        <v>-0.02946117724362536</v>
+      </c>
+      <c r="E26">
+        <v>0.0012860518504408</v>
+      </c>
+      <c r="F26">
+        <v>-0.08276862096058407</v>
+      </c>
+      <c r="G26">
+        <v>0.01093439403441182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1708309004547384</v>
+        <v>-0.1737661538121212</v>
       </c>
       <c r="C28">
-        <v>-0.2290585563988491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2288658910872681</v>
+      </c>
+      <c r="D28">
+        <v>0.0375341278429765</v>
+      </c>
+      <c r="E28">
+        <v>-0.05480222293313371</v>
+      </c>
+      <c r="F28">
+        <v>-0.1400542523392385</v>
+      </c>
+      <c r="G28">
+        <v>0.01792659933761368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02360408889112815</v>
+        <v>-0.02633027154606014</v>
       </c>
       <c r="C29">
-        <v>0.04931290798299997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.04696828222279208</v>
+      </c>
+      <c r="D29">
+        <v>-0.01879688658081265</v>
+      </c>
+      <c r="E29">
+        <v>0.01657448273815763</v>
+      </c>
+      <c r="F29">
+        <v>-0.07592984788130545</v>
+      </c>
+      <c r="G29">
+        <v>0.008677954007053311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03938376398314784</v>
+        <v>-0.04105971132485019</v>
       </c>
       <c r="C30">
-        <v>0.0715761963455615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07805340735905787</v>
+      </c>
+      <c r="D30">
+        <v>-0.09255439168660706</v>
+      </c>
+      <c r="E30">
+        <v>-0.1073245748968921</v>
+      </c>
+      <c r="F30">
+        <v>-0.06857262962114727</v>
+      </c>
+      <c r="G30">
+        <v>0.02085568588489875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0525464949742097</v>
+        <v>-0.05182589257107204</v>
       </c>
       <c r="C31">
-        <v>0.03376884421412286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03625322388100794</v>
+      </c>
+      <c r="D31">
+        <v>-0.02334467319120295</v>
+      </c>
+      <c r="E31">
+        <v>0.02974310479876066</v>
+      </c>
+      <c r="F31">
+        <v>-0.02033178104884436</v>
+      </c>
+      <c r="G31">
+        <v>-0.02081929620221134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04445578748902089</v>
+        <v>-0.04886116690036269</v>
       </c>
       <c r="C32">
-        <v>0.05090470995058199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.04817887880176714</v>
+      </c>
+      <c r="D32">
+        <v>-0.02773217165119308</v>
+      </c>
+      <c r="E32">
+        <v>0.01206009765427981</v>
+      </c>
+      <c r="F32">
+        <v>-0.01002036361495345</v>
+      </c>
+      <c r="G32">
+        <v>0.007295864121677408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07919094019906976</v>
+        <v>-0.08219908893121422</v>
       </c>
       <c r="C33">
-        <v>0.1121883328319558</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1203268626065734</v>
+      </c>
+      <c r="D33">
+        <v>-0.0714369120761119</v>
+      </c>
+      <c r="E33">
+        <v>-0.01017517105665547</v>
+      </c>
+      <c r="F33">
+        <v>-0.07721964918666716</v>
+      </c>
+      <c r="G33">
+        <v>0.003012892170314739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05455259764676451</v>
+        <v>-0.05432678805779001</v>
       </c>
       <c r="C34">
-        <v>0.1187712770868166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1207125180289379</v>
+      </c>
+      <c r="D34">
+        <v>-0.06484380846570879</v>
+      </c>
+      <c r="E34">
+        <v>-0.03859675764128785</v>
+      </c>
+      <c r="F34">
+        <v>-0.08491532789434426</v>
+      </c>
+      <c r="G34">
+        <v>0.02604183111453547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02657990863143831</v>
+        <v>-0.02938428907224767</v>
       </c>
       <c r="C35">
-        <v>0.01683052354351481</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.0191908625070463</v>
+      </c>
+      <c r="D35">
+        <v>-0.02780469254354038</v>
+      </c>
+      <c r="E35">
+        <v>0.01289982983560442</v>
+      </c>
+      <c r="F35">
+        <v>-0.03209510011209041</v>
+      </c>
+      <c r="G35">
+        <v>0.0318070701841461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0228538179588106</v>
+        <v>-0.02732637392470673</v>
       </c>
       <c r="C36">
-        <v>0.04996901776263715</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.04893122531516478</v>
+      </c>
+      <c r="D36">
+        <v>-0.0621375885639553</v>
+      </c>
+      <c r="E36">
+        <v>-0.004161974559086832</v>
+      </c>
+      <c r="F36">
+        <v>-0.02480746975257951</v>
+      </c>
+      <c r="G36">
+        <v>0.08229707510418773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-7.188764107386971e-05</v>
+        <v>-0.00343220421506502</v>
       </c>
       <c r="C37">
-        <v>-0.0002150485469755399</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.007114409843291547</v>
+      </c>
+      <c r="D37">
+        <v>-0.001465746022085817</v>
+      </c>
+      <c r="E37">
+        <v>-0.0006491465194226724</v>
+      </c>
+      <c r="F37">
+        <v>-0.01098723436185847</v>
+      </c>
+      <c r="G37">
+        <v>-0.00554122151009235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08254015256911529</v>
+        <v>-0.07679724375719342</v>
       </c>
       <c r="C39">
-        <v>0.1502340388824204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1458927130072852</v>
+      </c>
+      <c r="D39">
+        <v>-0.03915613849328459</v>
+      </c>
+      <c r="E39">
+        <v>0.01199542566934523</v>
+      </c>
+      <c r="F39">
+        <v>-0.131217263442144</v>
+      </c>
+      <c r="G39">
+        <v>-0.03063527497233594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04558550132133486</v>
+        <v>-0.05005484601138172</v>
       </c>
       <c r="C40">
-        <v>0.06845784020873641</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.07317633906584393</v>
+      </c>
+      <c r="D40">
+        <v>-0.01730390663265908</v>
+      </c>
+      <c r="E40">
+        <v>0.0001375026240037497</v>
+      </c>
+      <c r="F40">
+        <v>-0.04833847362012192</v>
+      </c>
+      <c r="G40">
+        <v>0.04450983424794741</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02677277142328112</v>
+        <v>-0.02841236496675705</v>
       </c>
       <c r="C41">
-        <v>0.02187496477029296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02287765367280179</v>
+      </c>
+      <c r="D41">
+        <v>0.005803641080819572</v>
+      </c>
+      <c r="E41">
+        <v>0.008890831046850773</v>
+      </c>
+      <c r="F41">
+        <v>0.0105357021087029</v>
+      </c>
+      <c r="G41">
+        <v>0.01225566349152036</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0422812122171449</v>
+        <v>-0.04163378697840862</v>
       </c>
       <c r="C43">
-        <v>0.03964764174591266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03641472439851426</v>
+      </c>
+      <c r="D43">
+        <v>-0.008750055156390435</v>
+      </c>
+      <c r="E43">
+        <v>0.03385556005230256</v>
+      </c>
+      <c r="F43">
+        <v>-0.02437342884493745</v>
+      </c>
+      <c r="G43">
+        <v>0.00228091679187375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05615720101385482</v>
+        <v>-0.06359750471173201</v>
       </c>
       <c r="C44">
-        <v>0.08487338814380446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.08773800497193904</v>
+      </c>
+      <c r="D44">
+        <v>-0.2516831431019119</v>
+      </c>
+      <c r="E44">
+        <v>-0.1354378679945268</v>
+      </c>
+      <c r="F44">
+        <v>-0.1280952661250652</v>
+      </c>
+      <c r="G44">
+        <v>0.1678985745965327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0004323241188669142</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0009424397617452159</v>
+      </c>
+      <c r="D45">
+        <v>0.001419028435676136</v>
+      </c>
+      <c r="E45">
+        <v>-0.001829056883879719</v>
+      </c>
+      <c r="F45">
+        <v>0.003584569364285185</v>
+      </c>
+      <c r="G45">
+        <v>-0.004453083775499018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02830554369087989</v>
+        <v>-0.02802997647248992</v>
       </c>
       <c r="C46">
-        <v>0.03352255955284562</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03369907572945801</v>
+      </c>
+      <c r="D46">
+        <v>-0.02295228574621833</v>
+      </c>
+      <c r="E46">
+        <v>0.03605880246290063</v>
+      </c>
+      <c r="F46">
+        <v>-0.07530358142247867</v>
+      </c>
+      <c r="G46">
+        <v>-0.02032663714003668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05270612515370432</v>
+        <v>-0.05197427802046514</v>
       </c>
       <c r="C47">
-        <v>0.02722980422803863</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.03018705760619885</v>
+      </c>
+      <c r="D47">
+        <v>0.002239863653279921</v>
+      </c>
+      <c r="E47">
+        <v>0.06028789494359982</v>
+      </c>
+      <c r="F47">
+        <v>0.004568277603250633</v>
+      </c>
+      <c r="G47">
+        <v>-0.03008590355603132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04688633271891612</v>
+        <v>-0.05017885174759054</v>
       </c>
       <c r="C48">
-        <v>0.07103754126748234</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.0702756911322386</v>
+      </c>
+      <c r="D48">
+        <v>-0.01939237529407429</v>
+      </c>
+      <c r="E48">
+        <v>-0.02886946755257575</v>
+      </c>
+      <c r="F48">
+        <v>-0.0551894772810168</v>
+      </c>
+      <c r="G48">
+        <v>-0.02088028398394232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1938843228025902</v>
+        <v>-0.1975828118857697</v>
       </c>
       <c r="C49">
-        <v>-0.01297133395521706</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.007203747663809663</v>
+      </c>
+      <c r="D49">
+        <v>-0.02765442666547053</v>
+      </c>
+      <c r="E49">
+        <v>-0.04043654091036164</v>
+      </c>
+      <c r="F49">
+        <v>0.05640897629276702</v>
+      </c>
+      <c r="G49">
+        <v>-0.006201109303627753</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05076647457441561</v>
+        <v>-0.05219039057388961</v>
       </c>
       <c r="C50">
-        <v>0.03217306874762123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03425852848723632</v>
+      </c>
+      <c r="D50">
+        <v>-0.0306962992149519</v>
+      </c>
+      <c r="E50">
+        <v>0.01622442291727923</v>
+      </c>
+      <c r="F50">
+        <v>-0.01005725264009837</v>
+      </c>
+      <c r="G50">
+        <v>-0.02297140180205081</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1438398356530689</v>
+        <v>-0.1373760473103106</v>
       </c>
       <c r="C52">
-        <v>0.03349318789603706</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03507846919282529</v>
+      </c>
+      <c r="D52">
+        <v>-0.05919254123517435</v>
+      </c>
+      <c r="E52">
+        <v>0.01665156689902325</v>
+      </c>
+      <c r="F52">
+        <v>0.07580198933578086</v>
+      </c>
+      <c r="G52">
+        <v>-0.04120174654407826</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1724454502202531</v>
+        <v>-0.1639170110035642</v>
       </c>
       <c r="C53">
-        <v>-0.005849206843877077</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.001131652500319699</v>
+      </c>
+      <c r="D53">
+        <v>-0.1069056286096351</v>
+      </c>
+      <c r="E53">
+        <v>0.006787734517523071</v>
+      </c>
+      <c r="F53">
+        <v>0.1254658646177077</v>
+      </c>
+      <c r="G53">
+        <v>-0.08271131757295952</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01060939377678898</v>
+        <v>-0.01418196992103093</v>
       </c>
       <c r="C54">
-        <v>0.03322853644937305</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.03389686751075561</v>
+      </c>
+      <c r="D54">
+        <v>-0.0209739089286767</v>
+      </c>
+      <c r="E54">
+        <v>0.0127038037244569</v>
+      </c>
+      <c r="F54">
+        <v>-0.04706030983678707</v>
+      </c>
+      <c r="G54">
+        <v>0.001272692755271782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1215614189238308</v>
+        <v>-0.118089266013314</v>
       </c>
       <c r="C55">
-        <v>0.00717439911737407</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01289266891896372</v>
+      </c>
+      <c r="D55">
+        <v>-0.07914657300617507</v>
+      </c>
+      <c r="E55">
+        <v>0.03413995103612148</v>
+      </c>
+      <c r="F55">
+        <v>0.03933304351017106</v>
+      </c>
+      <c r="G55">
+        <v>-0.07566718344787575</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1804020686966724</v>
+        <v>-0.1729078096795044</v>
       </c>
       <c r="C56">
-        <v>-0.008785872867812423</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.007014579582295329</v>
+      </c>
+      <c r="D56">
+        <v>-0.06056615356735257</v>
+      </c>
+      <c r="E56">
+        <v>0.04066771203667616</v>
+      </c>
+      <c r="F56">
+        <v>0.1532101628733525</v>
+      </c>
+      <c r="G56">
+        <v>-0.08630152943229451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04312099931712132</v>
+        <v>-0.04369199569654</v>
       </c>
       <c r="C58">
-        <v>0.09552207497971632</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1040810194717309</v>
+      </c>
+      <c r="D58">
+        <v>-0.01670047683785365</v>
+      </c>
+      <c r="E58">
+        <v>0.03507138096668772</v>
+      </c>
+      <c r="F58">
+        <v>-0.04547900088852761</v>
+      </c>
+      <c r="G58">
+        <v>-0.01727997342860877</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1883208818270157</v>
+        <v>-0.191670788143075</v>
       </c>
       <c r="C59">
-        <v>-0.1768483025874852</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1792363944724953</v>
+      </c>
+      <c r="D59">
+        <v>0.07529657562449353</v>
+      </c>
+      <c r="E59">
+        <v>0.03465146593846733</v>
+      </c>
+      <c r="F59">
+        <v>-0.07322402848476411</v>
+      </c>
+      <c r="G59">
+        <v>-0.02610088867776545</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2139634447732098</v>
+        <v>-0.2088434363081255</v>
       </c>
       <c r="C60">
-        <v>0.005804854201184762</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.01139280268986639</v>
+      </c>
+      <c r="D60">
+        <v>0.05194874411403061</v>
+      </c>
+      <c r="E60">
+        <v>0.03998362028837107</v>
+      </c>
+      <c r="F60">
+        <v>0.1878592456798178</v>
+      </c>
+      <c r="G60">
+        <v>-0.1016070949057455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06463999117183462</v>
+        <v>-0.06191467202678991</v>
       </c>
       <c r="C61">
-        <v>0.1206755773754714</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1194702908381869</v>
+      </c>
+      <c r="D61">
+        <v>-0.03772405566504705</v>
+      </c>
+      <c r="E61">
+        <v>0.01385801952273895</v>
+      </c>
+      <c r="F61">
+        <v>-0.09109767579307521</v>
+      </c>
+      <c r="G61">
+        <v>-0.009946021760083194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1690051276500033</v>
+        <v>-0.1649759690211369</v>
       </c>
       <c r="C62">
-        <v>-0.006740330008558564</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.004274132140352016</v>
+      </c>
+      <c r="D62">
+        <v>-0.05285016907481122</v>
+      </c>
+      <c r="E62">
+        <v>0.03363353876070201</v>
+      </c>
+      <c r="F62">
+        <v>0.1226674061340194</v>
+      </c>
+      <c r="G62">
+        <v>-0.07545270888785613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03847795751385805</v>
+        <v>-0.04305229360743829</v>
       </c>
       <c r="C63">
-        <v>0.07348512582076193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.07521792292106134</v>
+      </c>
+      <c r="D63">
+        <v>-0.03191915260756084</v>
+      </c>
+      <c r="E63">
+        <v>0.01460248431157254</v>
+      </c>
+      <c r="F63">
+        <v>-0.05079617407175918</v>
+      </c>
+      <c r="G63">
+        <v>0.03125820322821248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1123275366164613</v>
+        <v>-0.1099143955225547</v>
       </c>
       <c r="C64">
-        <v>0.04903618947386282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.05229978140690649</v>
+      </c>
+      <c r="D64">
+        <v>-0.03587396808883009</v>
+      </c>
+      <c r="E64">
+        <v>0.008552716219685291</v>
+      </c>
+      <c r="F64">
+        <v>0.03301977505406892</v>
+      </c>
+      <c r="G64">
+        <v>-0.004178600360650673</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1582424379490078</v>
+        <v>-0.161473916213408</v>
       </c>
       <c r="C65">
-        <v>-0.05807570455478396</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.0480936447206763</v>
+      </c>
+      <c r="D65">
+        <v>-0.05111621990854314</v>
+      </c>
+      <c r="E65">
+        <v>-0.02819694931684567</v>
+      </c>
+      <c r="F65">
+        <v>0.01506072908726154</v>
+      </c>
+      <c r="G65">
+        <v>-0.02843986638673887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09943650084807046</v>
+        <v>-0.0930713497654576</v>
       </c>
       <c r="C66">
-        <v>0.1274685689034679</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.128762224653002</v>
+      </c>
+      <c r="D66">
+        <v>-0.03791302486408322</v>
+      </c>
+      <c r="E66">
+        <v>0.002734436751871943</v>
+      </c>
+      <c r="F66">
+        <v>-0.1024867113562638</v>
+      </c>
+      <c r="G66">
+        <v>0.01323389894942061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05877556075601847</v>
+        <v>-0.04949367041193552</v>
       </c>
       <c r="C67">
-        <v>0.08813232355936317</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.08236235454134293</v>
+      </c>
+      <c r="D67">
+        <v>0.02896382598608593</v>
+      </c>
+      <c r="E67">
+        <v>0.09292320433555157</v>
+      </c>
+      <c r="F67">
+        <v>0.0358914567806892</v>
+      </c>
+      <c r="G67">
+        <v>-0.001591970004118664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1389132712510416</v>
+        <v>-0.1420757774156567</v>
       </c>
       <c r="C68">
-        <v>-0.2479870437317428</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2494824443291342</v>
+      </c>
+      <c r="D68">
+        <v>0.06699914416174634</v>
+      </c>
+      <c r="E68">
+        <v>-0.08918994178850749</v>
+      </c>
+      <c r="F68">
+        <v>-0.1240731045814586</v>
+      </c>
+      <c r="G68">
+        <v>-0.01521241482625361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03921964236448878</v>
+        <v>-0.03838972933569453</v>
       </c>
       <c r="C69">
-        <v>0.01418133716693614</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01617807474669133</v>
+      </c>
+      <c r="D69">
+        <v>-0.02241004534029706</v>
+      </c>
+      <c r="E69">
+        <v>0.06019283721754971</v>
+      </c>
+      <c r="F69">
+        <v>0.04354047914770369</v>
+      </c>
+      <c r="G69">
+        <v>0.02124844915761312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.0709826399467726</v>
+        <v>-0.07206814787342641</v>
       </c>
       <c r="C70">
-        <v>0.08334325332268019</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.08140695433007741</v>
+      </c>
+      <c r="D70">
+        <v>0.3884076043973803</v>
+      </c>
+      <c r="E70">
+        <v>0.363544040517202</v>
+      </c>
+      <c r="F70">
+        <v>0.2634723911472551</v>
+      </c>
+      <c r="G70">
+        <v>-0.4193697921735953</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.162335997616979</v>
+        <v>-0.1667988329994255</v>
       </c>
       <c r="C71">
-        <v>-0.2547199404036419</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2529675910182222</v>
+      </c>
+      <c r="D71">
+        <v>0.07530057542545666</v>
+      </c>
+      <c r="E71">
+        <v>-0.09864002975650391</v>
+      </c>
+      <c r="F71">
+        <v>-0.1256377635872082</v>
+      </c>
+      <c r="G71">
+        <v>-0.01347272598468717</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1433086628431357</v>
+        <v>-0.1489260130639502</v>
       </c>
       <c r="C72">
-        <v>0.006743826381382049</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.005960375100415877</v>
+      </c>
+      <c r="D72">
+        <v>-0.07435721558115242</v>
+      </c>
+      <c r="E72">
+        <v>0.033818644414435</v>
+      </c>
+      <c r="F72">
+        <v>0.02950078223452047</v>
+      </c>
+      <c r="G72">
+        <v>0.006432215344454027</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1922454217396755</v>
+        <v>-0.2000903459958937</v>
       </c>
       <c r="C73">
-        <v>0.02323828040593279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.03147612332146116</v>
+      </c>
+      <c r="D73">
+        <v>-0.07844853803782564</v>
+      </c>
+      <c r="E73">
+        <v>0.03853353543733479</v>
+      </c>
+      <c r="F73">
+        <v>0.1067323903184138</v>
+      </c>
+      <c r="G73">
+        <v>0.003141818926849787</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08672915391360102</v>
+        <v>-0.0858898485101261</v>
       </c>
       <c r="C74">
-        <v>0.003248427768182432</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.009620073400679025</v>
+      </c>
+      <c r="D74">
+        <v>-0.08218442076814085</v>
+      </c>
+      <c r="E74">
+        <v>0.004241125132766725</v>
+      </c>
+      <c r="F74">
+        <v>0.07417324223667475</v>
+      </c>
+      <c r="G74">
+        <v>-0.005672998605526406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1233844025582164</v>
+        <v>-0.1155669331049059</v>
       </c>
       <c r="C75">
-        <v>0.0178486239988277</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02089324644386303</v>
+      </c>
+      <c r="D75">
+        <v>-0.06873343060317498</v>
+      </c>
+      <c r="E75">
+        <v>0.05374730113306134</v>
+      </c>
+      <c r="F75">
+        <v>0.06629410937339159</v>
+      </c>
+      <c r="G75">
+        <v>-0.05035318426292654</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07267544874986669</v>
+        <v>-0.08653156918073257</v>
       </c>
       <c r="C77">
-        <v>0.1112724536114762</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1128180901327163</v>
+      </c>
+      <c r="D77">
+        <v>-0.07205279808860685</v>
+      </c>
+      <c r="E77">
+        <v>-0.03240373707957841</v>
+      </c>
+      <c r="F77">
+        <v>-0.09889963667507387</v>
+      </c>
+      <c r="G77">
+        <v>-0.1070791297068479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08688166155153459</v>
+        <v>-0.0909578319338981</v>
       </c>
       <c r="C78">
-        <v>0.122477799763926</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1227391933689699</v>
+      </c>
+      <c r="D78">
+        <v>-0.06681785787385509</v>
+      </c>
+      <c r="E78">
+        <v>-0.02675544202312018</v>
+      </c>
+      <c r="F78">
+        <v>-0.1115323128878445</v>
+      </c>
+      <c r="G78">
+        <v>-0.08469949794362046</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1667219210702362</v>
+        <v>-0.162093940276078</v>
       </c>
       <c r="C79">
-        <v>0.01643099719863399</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.01861714753191366</v>
+      </c>
+      <c r="D79">
+        <v>-0.04221884781240647</v>
+      </c>
+      <c r="E79">
+        <v>0.03748132216256773</v>
+      </c>
+      <c r="F79">
+        <v>0.05891086082167625</v>
+      </c>
+      <c r="G79">
+        <v>-0.05072319020003109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07469011715985038</v>
+        <v>-0.07247022230568199</v>
       </c>
       <c r="C80">
-        <v>0.06875128756673959</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.06491457562811463</v>
+      </c>
+      <c r="D80">
+        <v>-0.01948213186366981</v>
+      </c>
+      <c r="E80">
+        <v>0.03752951688981934</v>
+      </c>
+      <c r="F80">
+        <v>-0.09134611800968698</v>
+      </c>
+      <c r="G80">
+        <v>0.1067795604513539</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1116117542590288</v>
+        <v>-0.1047655487602978</v>
       </c>
       <c r="C81">
-        <v>-0.016121195715832</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.01318201859274659</v>
+      </c>
+      <c r="D81">
+        <v>-0.04101456410552696</v>
+      </c>
+      <c r="E81">
+        <v>0.06516929838079429</v>
+      </c>
+      <c r="F81">
+        <v>0.07576720485407901</v>
+      </c>
+      <c r="G81">
+        <v>-0.01139050027106252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1615732157518602</v>
+        <v>-0.1572521093556863</v>
       </c>
       <c r="C82">
-        <v>-0.01373552029176325</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01034465977340241</v>
+      </c>
+      <c r="D82">
+        <v>-0.09053279021886632</v>
+      </c>
+      <c r="E82">
+        <v>-0.009684369146871806</v>
+      </c>
+      <c r="F82">
+        <v>0.1347447683432821</v>
+      </c>
+      <c r="G82">
+        <v>-0.01674458720048156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05422793046711024</v>
+        <v>-0.05001879126104455</v>
       </c>
       <c r="C83">
-        <v>0.0635822099594151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05863754861780199</v>
+      </c>
+      <c r="D83">
+        <v>0.009288441263365966</v>
+      </c>
+      <c r="E83">
+        <v>0.008058125092781025</v>
+      </c>
+      <c r="F83">
+        <v>-0.003523045234995085</v>
+      </c>
+      <c r="G83">
+        <v>-0.0141901635670693</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.0508847176070523</v>
+        <v>-0.0483360970080902</v>
       </c>
       <c r="C84">
-        <v>0.07163053030846366</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07067505081668428</v>
+      </c>
+      <c r="D84">
+        <v>0.0006603342617777377</v>
+      </c>
+      <c r="E84">
+        <v>0.03294510367224009</v>
+      </c>
+      <c r="F84">
+        <v>0.006494268246553801</v>
+      </c>
+      <c r="G84">
+        <v>-0.02455752563437351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1396898076155497</v>
+        <v>-0.1338471556887329</v>
       </c>
       <c r="C85">
-        <v>0.003829684257730024</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.007311229386823672</v>
+      </c>
+      <c r="D85">
+        <v>-0.09501445533266167</v>
+      </c>
+      <c r="E85">
+        <v>0.006534104575493252</v>
+      </c>
+      <c r="F85">
+        <v>0.05457878806792096</v>
+      </c>
+      <c r="G85">
+        <v>-0.03861316185771181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08313705327928306</v>
+        <v>-0.08069644881463504</v>
       </c>
       <c r="C86">
-        <v>0.134489268541817</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1351865395803287</v>
+      </c>
+      <c r="D86">
+        <v>0.3900233643212619</v>
+      </c>
+      <c r="E86">
+        <v>0.5238318378834161</v>
+      </c>
+      <c r="F86">
+        <v>-0.5068955504122975</v>
+      </c>
+      <c r="G86">
+        <v>0.1605256989483712</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.09115932129325717</v>
+        <v>-0.08778299523145752</v>
       </c>
       <c r="C87">
-        <v>0.1001653277917183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.09818856969966833</v>
+      </c>
+      <c r="D87">
+        <v>-0.02857188736180782</v>
+      </c>
+      <c r="E87">
+        <v>-0.14647569580854</v>
+      </c>
+      <c r="F87">
+        <v>-0.08036047788289963</v>
+      </c>
+      <c r="G87">
+        <v>0.04994095973552836</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06106540669866392</v>
+        <v>-0.06020199326985352</v>
       </c>
       <c r="C88">
-        <v>0.0598976447325548</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06076080807020446</v>
+      </c>
+      <c r="D88">
+        <v>-0.01702313079167004</v>
+      </c>
+      <c r="E88">
+        <v>0.01248614722142608</v>
+      </c>
+      <c r="F88">
+        <v>0.02603944781692148</v>
+      </c>
+      <c r="G88">
+        <v>-0.01419523856962815</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1486980475723025</v>
+        <v>-0.1513902162189772</v>
       </c>
       <c r="C89">
-        <v>-0.1971381051828629</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2056937161419217</v>
+      </c>
+      <c r="D89">
+        <v>0.04853718122271643</v>
+      </c>
+      <c r="E89">
+        <v>-0.083300165038974</v>
+      </c>
+      <c r="F89">
+        <v>-0.09608099087820549</v>
+      </c>
+      <c r="G89">
+        <v>0.01101534568963929</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1776309304651726</v>
+        <v>-0.1846036753314927</v>
       </c>
       <c r="C90">
-        <v>-0.227810034294391</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2349008326046164</v>
+      </c>
+      <c r="D90">
+        <v>0.09997991554027201</v>
+      </c>
+      <c r="E90">
+        <v>-0.1279658681936823</v>
+      </c>
+      <c r="F90">
+        <v>-0.1438990184564331</v>
+      </c>
+      <c r="G90">
+        <v>0.003846324036196733</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1261373793744513</v>
+        <v>-0.1206097165137243</v>
       </c>
       <c r="C91">
-        <v>-0.02379198789758465</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02091671336026571</v>
+      </c>
+      <c r="D91">
+        <v>-0.04313197361329732</v>
+      </c>
+      <c r="E91">
+        <v>0.1107705360335254</v>
+      </c>
+      <c r="F91">
+        <v>0.1025203536612508</v>
+      </c>
+      <c r="G91">
+        <v>0.001055184317095942</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1715158306571165</v>
+        <v>-0.1746303733295262</v>
       </c>
       <c r="C92">
-        <v>-0.2630321350460288</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2756536314665087</v>
+      </c>
+      <c r="D92">
+        <v>0.07864614152368923</v>
+      </c>
+      <c r="E92">
+        <v>-0.0775981259398382</v>
+      </c>
+      <c r="F92">
+        <v>-0.1925426678192994</v>
+      </c>
+      <c r="G92">
+        <v>-0.03610000165738963</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1772671734166243</v>
+        <v>-0.1852066701530043</v>
       </c>
       <c r="C93">
-        <v>-0.2224242757334494</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2268627605177103</v>
+      </c>
+      <c r="D93">
+        <v>0.04986160006223284</v>
+      </c>
+      <c r="E93">
+        <v>-0.05637643811968993</v>
+      </c>
+      <c r="F93">
+        <v>-0.1012202208607458</v>
+      </c>
+      <c r="G93">
+        <v>-0.05553482517291448</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1179314948692317</v>
+        <v>-0.1123116713633631</v>
       </c>
       <c r="C94">
-        <v>0.03278530135100539</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03318559422100033</v>
+      </c>
+      <c r="D94">
+        <v>-0.06081159049061461</v>
+      </c>
+      <c r="E94">
+        <v>0.05210030237925362</v>
+      </c>
+      <c r="F94">
+        <v>0.06452858787711432</v>
+      </c>
+      <c r="G94">
+        <v>-0.04471809874265496</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1185469250924209</v>
+        <v>-0.1215154710264326</v>
       </c>
       <c r="C95">
-        <v>0.1015099474857687</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1122004421180944</v>
+      </c>
+      <c r="D95">
+        <v>-0.02440401427952349</v>
+      </c>
+      <c r="E95">
+        <v>0.03314740772058688</v>
+      </c>
+      <c r="F95">
+        <v>-0.07525608515158948</v>
+      </c>
+      <c r="G95">
+        <v>0.0001908116381144977</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1180747861130785</v>
+        <v>-0.1154804186147652</v>
       </c>
       <c r="C96">
-        <v>0.1288500321991328</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1314726624139346</v>
+      </c>
+      <c r="D96">
+        <v>0.01084126986765028</v>
+      </c>
+      <c r="E96">
+        <v>-0.006239708233040908</v>
+      </c>
+      <c r="F96">
+        <v>0.06096722896012204</v>
+      </c>
+      <c r="G96">
+        <v>-0.0977115881307708</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1921983200631071</v>
+        <v>-0.1963089241851013</v>
       </c>
       <c r="C97">
-        <v>0.004877627998103904</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.000100157686331649</v>
+      </c>
+      <c r="D97">
+        <v>0.1316926587325522</v>
+      </c>
+      <c r="E97">
+        <v>0.1358408807328179</v>
+      </c>
+      <c r="F97">
+        <v>0.3420862626470431</v>
+      </c>
+      <c r="G97">
+        <v>0.8069367226934351</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2024795492619051</v>
+        <v>-0.2068559456058563</v>
       </c>
       <c r="C98">
-        <v>0.02045751082908426</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.02462222314454797</v>
+      </c>
+      <c r="D98">
+        <v>0.09969399032474445</v>
+      </c>
+      <c r="E98">
+        <v>-0.01509261202374903</v>
+      </c>
+      <c r="F98">
+        <v>0.08959737741615531</v>
+      </c>
+      <c r="G98">
+        <v>-0.02471904294012743</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05419611966443683</v>
+        <v>-0.05359736871747445</v>
       </c>
       <c r="C99">
-        <v>0.05619843427467833</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05694206316586746</v>
+      </c>
+      <c r="D99">
+        <v>-0.005546172251869887</v>
+      </c>
+      <c r="E99">
+        <v>0.0003699453010807001</v>
+      </c>
+      <c r="F99">
+        <v>-0.0341249909449954</v>
+      </c>
+      <c r="G99">
+        <v>0.01544855640334017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1108490865861531</v>
+        <v>-0.1041585766382384</v>
       </c>
       <c r="C100">
-        <v>0.3915265874225262</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.3626666039445388</v>
+      </c>
+      <c r="D100">
+        <v>0.6196660564785943</v>
+      </c>
+      <c r="E100">
+        <v>-0.587505779282038</v>
+      </c>
+      <c r="F100">
+        <v>0.08844079665562847</v>
+      </c>
+      <c r="G100">
+        <v>0.00959373051917505</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02354175551395092</v>
+        <v>-0.02627585678880835</v>
       </c>
       <c r="C101">
-        <v>0.04881937776192724</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.04644878602658559</v>
+      </c>
+      <c r="D101">
+        <v>-0.01572498207341057</v>
+      </c>
+      <c r="E101">
+        <v>0.01923531592805998</v>
+      </c>
+      <c r="F101">
+        <v>-0.07128476693691237</v>
+      </c>
+      <c r="G101">
+        <v>0.00520406191875771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
